--- a/ApolloQA/Data/RatingManual/GA/VA00043.RadiusFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00043.RadiusFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00043.RadiusFactors" sheetId="1" r:id="R788ab5fe85bf44ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00043.RadiusFactors" sheetId="1" r:id="R9b000b0ceba44662"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,57 +12,101 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Radius Lower Bound</x:v>
+        <x:v>Stated Value Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Radius Upper Bound</x:v>
+        <x:v>Stated Value Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Radius Factor</x:v>
+        <x:v>Stated Value Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>0</x:v>
+        <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>100</x:v>
+        <x:v>$475,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>0.6616</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>101</x:v>
+        <x:v>$475,001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>300</x:v>
+        <x:v>$500,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0999</x:v>
+        <x:v>0.6616</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>301</x:v>
+        <x:v>$500,001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>500</x:v>
+        <x:v>$600,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2130</x:v>
+        <x:v>0.6616</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>501</x:v>
+        <x:v>$600,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$700,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6616</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$700,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$800,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6616</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$800,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$900,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6616</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$900,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6616</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
       </x:c>
       <x:c t="str">
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2738</x:v>
+        <x:v>0.6616</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
